--- a/public/uploads/Book1.xlsx
+++ b/public/uploads/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\if090\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E30F19-A805-42F9-A826-14ADFEC72A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617C34C6-90DE-4AC1-AB1C-20B1948F0DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1AC605F1-8D1C-4520-9533-C6D9855A4633}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B6949C6-BE24-4A6C-AE13-AED503295666}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,115 +33,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Siswa</t>
+    <t>POKJA IT dan Teknik</t>
   </si>
   <si>
-    <t>Karyawan</t>
+    <t>strategi ke depan: karoseri menjadi salah satu peluang unit bisnis -&gt; mempunyai pelanggan tetap internal</t>
   </si>
   <si>
-    <t>PPDB</t>
+    <t>FMS : mengetahui kapan harus ganti sparepart</t>
   </si>
   <si>
-    <t>Data Ponpes</t>
-  </si>
-  <si>
-    <t>Absensi Pegawai</t>
-  </si>
-  <si>
-    <t>Penggajian</t>
-  </si>
-  <si>
-    <t>Master Data</t>
-  </si>
-  <si>
-    <t>Acara</t>
-  </si>
-  <si>
-    <t>Galery</t>
-  </si>
-  <si>
-    <t>Kontak</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Pengaturan</t>
-  </si>
-  <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>PONPES</t>
-  </si>
-  <si>
-    <t>CONTENT WEBSITE</t>
-  </si>
-  <si>
-    <t>Akun</t>
-  </si>
-  <si>
-    <t>Data Siswa</t>
-  </si>
-  <si>
-    <t>Pendaftaran Siswa</t>
-  </si>
-  <si>
-    <t>Data Karyawan</t>
-  </si>
-  <si>
-    <t>Pendaftaran Karyawan</t>
-  </si>
-  <si>
-    <t>Konseling</t>
-  </si>
-  <si>
-    <t>Perizinan</t>
-  </si>
-  <si>
-    <t>Daftar Kelas</t>
-  </si>
-  <si>
-    <t>Presensi</t>
-  </si>
-  <si>
-    <t>Pelanggaran</t>
-  </si>
-  <si>
-    <t>Data Absensi</t>
-  </si>
-  <si>
-    <t>Data Cicilan</t>
-  </si>
-  <si>
-    <t>Pendidikan</t>
-  </si>
-  <si>
-    <t>Kursi</t>
-  </si>
-  <si>
-    <t>Divisi</t>
+    <t>Aplikasi untuk menyatakan pramudi layak untuk bekerja beroperasi -&gt; mis: detak jantung (sifatnya rutinitas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -168,9 +80,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,197 +395,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765F57B7-559A-4F62-A526-7E20C4646267}">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666007EB-CDB6-4C3E-95B4-0A092AE665E9}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.54296875" customWidth="1"/>
-    <col min="2" max="2" width="2.90625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>19</v>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>